--- a/TimeCard/TimeCard/Content/Reports/TimeCardDetailTemp.xlsx
+++ b/TimeCard/TimeCard/Content/Reports/TimeCardDetailTemp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ngày</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>CHI TIẾT CHẤM CÔNG</t>
+  </si>
+  <si>
+    <t>IP Check In</t>
+  </si>
+  <si>
+    <t>IP Check Out</t>
   </si>
 </sst>
 </file>
@@ -129,19 +135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -156,24 +149,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +506,10 @@
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="11" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
@@ -510,9 +522,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,12 +553,17 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -555,10 +573,11 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -568,10 +587,11 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="7"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -581,10 +601,11 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -594,10 +615,11 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -607,10 +629,11 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="7"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -620,10 +643,11 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="7"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -633,10 +657,11 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -646,10 +671,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -659,10 +685,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -672,10 +699,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="7"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -685,10 +713,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -698,10 +727,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -711,10 +741,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="7"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -724,10 +755,11 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -737,10 +769,11 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -750,10 +783,11 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -763,10 +797,11 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="7"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -776,10 +811,11 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -789,10 +825,11 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -802,10 +839,11 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="7"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -815,10 +853,11 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="7"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -828,10 +867,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -841,10 +881,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -854,10 +895,11 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="7"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -867,10 +909,11 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K28" s="7"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -880,10 +923,11 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -893,10 +937,11 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -906,10 +951,11 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="7"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -919,12 +965,13 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
